--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -211,10 +211,10 @@
     <t xml:space="preserve">IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_id: sicenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_application_vendor: simeds</t>
+    <t xml:space="preserve">subject_application_id: simeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_application_vendor: sicenter</t>
   </si>
   <si>
     <t xml:space="preserve">subject_application_version: 1</t>
@@ -912,7 +912,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -975,12 +975,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -994,6 +988,7 @@
       <color rgb="FFF7F7F7"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1128,7 +1123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1237,7 +1232,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1261,23 +1256,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1396,7 +1383,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2470,7 +2457,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3580,18 +3567,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="144.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="69.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="144.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="69.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3888,14 +3875,14 @@
       <c r="E11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>60</v>
       </c>
       <c r="L11" s="29"/>
@@ -3926,14 +3913,14 @@
       <c r="E12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L12" s="29"/>
@@ -3964,14 +3951,14 @@
       <c r="E13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="33"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L13" s="29"/>
@@ -3999,7 +3986,7 @@
       <c r="D14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="27" t="n">
@@ -4016,7 +4003,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="29" t="s">
         <v>59</v>
       </c>
       <c r="M14" s="29" t="s">
@@ -4051,7 +4038,7 @@
       <c r="D15" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="27" t="n">
@@ -4068,7 +4055,7 @@
         <v>55</v>
       </c>
       <c r="K15" s="29"/>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="29" t="s">
         <v>59</v>
       </c>
       <c r="M15" s="29" t="s">
@@ -4116,7 +4103,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="29"/>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="29" t="s">
         <v>59</v>
       </c>
       <c r="M16" s="29" t="s">
@@ -4156,18 +4143,18 @@
       <c r="E17" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="33" t="s">
         <v>83</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
@@ -4194,14 +4181,14 @@
       <c r="E18" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>86</v>
       </c>
       <c r="L18" s="29"/>
@@ -4248,10 +4235,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="29"/>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N19" s="29" t="s">
@@ -4286,21 +4273,21 @@
       <c r="E20" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="33" t="s">
         <v>95</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="37"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
@@ -4340,10 +4327,10 @@
         <v>55</v>
       </c>
       <c r="K21" s="29"/>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N21" s="29" t="s">
@@ -4378,14 +4365,14 @@
       <c r="E22" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="33" t="s">
         <v>103</v>
       </c>
       <c r="L22" s="29"/>
@@ -4416,14 +4403,14 @@
       <c r="E23" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="33" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="29"/>
@@ -4454,14 +4441,14 @@
       <c r="E24" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="33" t="s">
         <v>109</v>
       </c>
       <c r="L24" s="29"/>
@@ -4508,10 +4495,10 @@
         <v>55</v>
       </c>
       <c r="K25" s="29"/>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M25" s="36" t="s">
+      <c r="M25" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N25" s="29" t="s">
@@ -4562,10 +4549,10 @@
         <v>55</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="36" t="s">
+      <c r="M26" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N26" s="29" t="s">
@@ -4616,10 +4603,10 @@
         <v>55</v>
       </c>
       <c r="K27" s="29"/>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="36" t="s">
+      <c r="M27" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="29" t="s">
@@ -4654,14 +4641,14 @@
       <c r="E28" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="33" t="s">
         <v>127</v>
       </c>
       <c r="L28" s="29"/>
@@ -4692,14 +4679,14 @@
       <c r="E29" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K29" s="33" t="s">
         <v>130</v>
       </c>
       <c r="L29" s="29"/>
@@ -4730,14 +4717,14 @@
       <c r="E30" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="33" t="s">
         <v>133</v>
       </c>
       <c r="L30" s="29"/>
@@ -4768,14 +4755,14 @@
       <c r="E31" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="33" t="s">
         <v>133</v>
       </c>
       <c r="L31" s="29"/>
@@ -4806,14 +4793,14 @@
       <c r="E32" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="33" t="s">
         <v>133</v>
       </c>
       <c r="L32" s="29"/>
@@ -4844,14 +4831,14 @@
       <c r="E33" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="33" t="s">
         <v>133</v>
       </c>
       <c r="L33" s="29"/>
@@ -4882,14 +4869,14 @@
       <c r="E34" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
       <c r="J34" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="33" t="s">
         <v>133</v>
       </c>
       <c r="L34" s="29"/>
@@ -4920,14 +4907,14 @@
       <c r="E35" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="33" t="s">
         <v>144</v>
       </c>
       <c r="L35" s="29"/>
@@ -9553,7 +9540,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T36"/>
+  <autoFilter ref="A9:T9"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -9598,7 +9585,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -9628,10 +9615,10 @@
       <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9642,10 +9629,10 @@
       <c r="B3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9656,10 +9643,10 @@
       <c r="B4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9670,10 +9657,10 @@
       <c r="B5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9684,10 +9671,10 @@
       <c r="B6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>166</v>
       </c>
     </row>
@@ -9698,10 +9685,10 @@
       <c r="B7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9712,10 +9699,10 @@
       <c r="B8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9726,10 +9713,10 @@
       <c r="B9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>175</v>
       </c>
     </row>
@@ -9740,10 +9727,10 @@
       <c r="B10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9754,10 +9741,10 @@
       <c r="B11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="36" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9768,10 +9755,10 @@
       <c r="B12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9782,10 +9769,10 @@
       <c r="B13" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="38" t="n">
+      <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9796,10 +9783,10 @@
       <c r="B14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="38" t="n">
+      <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9810,10 +9797,10 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="38" t="n">
+      <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9824,10 +9811,10 @@
       <c r="B16" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="38" t="n">
+      <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9838,10 +9825,10 @@
       <c r="B17" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="38" t="n">
+      <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9852,10 +9839,10 @@
       <c r="B18" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="38" t="n">
+      <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9866,10 +9853,10 @@
       <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="38" t="n">
+      <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="36" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9880,10 +9867,10 @@
       <c r="B20" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="38" t="n">
+      <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="36" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9894,10 +9881,10 @@
       <c r="B21" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="38" t="n">
+      <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9908,10 +9895,10 @@
       <c r="B22" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="38" t="n">
+      <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="36" t="s">
         <v>192</v>
       </c>
     </row>
@@ -9922,10 +9909,10 @@
       <c r="B23" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9936,10 +9923,10 @@
       <c r="B24" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="38" t="n">
+      <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="37" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9950,10 +9937,10 @@
       <c r="B25" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="38" t="n">
+      <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="37" t="s">
         <v>195</v>
       </c>
     </row>
@@ -9964,10 +9951,10 @@
       <c r="B26" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="38" t="n">
+      <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9978,10 +9965,10 @@
       <c r="B27" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="36" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9992,10 +9979,10 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="38" t="n">
+      <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10006,10 +9993,10 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="38" t="n">
+      <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="38" t="s">
         <v>200</v>
       </c>
     </row>
@@ -10020,10 +10007,10 @@
       <c r="B30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="38" t="n">
+      <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>201</v>
       </c>
     </row>
@@ -10034,10 +10021,10 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="38" t="n">
+      <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="37" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10048,10 +10035,10 @@
       <c r="B32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="38" t="n">
+      <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="37" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10062,10 +10049,10 @@
       <c r="B33" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="38" t="n">
+      <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="37" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10076,10 +10063,10 @@
       <c r="B34" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="37" t="s">
         <v>205</v>
       </c>
     </row>
@@ -10090,10 +10077,10 @@
       <c r="B35" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="38" t="n">
+      <c r="C35" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="38" t="n">
+      <c r="D35" s="36" t="n">
         <v>204</v>
       </c>
     </row>
@@ -10104,10 +10091,10 @@
       <c r="B36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="38" t="n">
+      <c r="C36" s="36" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="38" t="n">
+      <c r="D36" s="36" t="n">
         <v>220</v>
       </c>
     </row>
@@ -10118,10 +10105,10 @@
       <c r="B37" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="38" t="n">
+      <c r="C37" s="36" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="39" t="n">
+      <c r="D37" s="37" t="n">
         <v>236</v>
       </c>
     </row>
@@ -10132,10 +10119,10 @@
       <c r="B38" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C38" s="38" t="n">
+      <c r="C38" s="36" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="38" t="n">
+      <c r="D38" s="36" t="n">
         <v>252</v>
       </c>
     </row>
@@ -10146,10 +10133,10 @@
       <c r="B39" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="38" t="n">
+      <c r="C39" s="36" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="39" t="n">
+      <c r="D39" s="37" t="n">
         <v>268</v>
       </c>
     </row>
@@ -10160,10 +10147,10 @@
       <c r="B40" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="38" t="n">
+      <c r="C40" s="36" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="39" t="n">
+      <c r="D40" s="37" t="n">
         <v>284</v>
       </c>
     </row>
@@ -10174,10 +10161,10 @@
       <c r="B41" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="38" t="n">
+      <c r="C41" s="36" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="39" t="n">
+      <c r="D41" s="37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -10188,10 +10175,10 @@
       <c r="B42" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="38" t="n">
+      <c r="C42" s="36" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="39" t="n">
+      <c r="D42" s="37" t="n">
         <v>316</v>
       </c>
     </row>
@@ -10202,10 +10189,10 @@
       <c r="B43" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="38" t="n">
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="38" t="n">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
@@ -10216,10 +10203,10 @@
       <c r="B44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="38" t="n">
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="38" t="n">
+      <c r="D44" s="36" t="n">
         <v>223</v>
       </c>
     </row>
@@ -10230,10 +10217,10 @@
       <c r="B45" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="38" t="n">
+      <c r="C45" s="36" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="39" t="n">
+      <c r="D45" s="37" t="n">
         <v>239</v>
       </c>
     </row>
@@ -10244,10 +10231,10 @@
       <c r="B46" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="38" t="n">
+      <c r="C46" s="36" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="38" t="n">
+      <c r="D46" s="36" t="n">
         <v>255</v>
       </c>
     </row>
@@ -10258,10 +10245,10 @@
       <c r="B47" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="38" t="n">
+      <c r="C47" s="36" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="39" t="n">
+      <c r="D47" s="37" t="n">
         <v>271</v>
       </c>
     </row>
@@ -10272,10 +10259,10 @@
       <c r="B48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="38" t="n">
+      <c r="C48" s="36" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="39" t="n">
+      <c r="D48" s="37" t="n">
         <v>287</v>
       </c>
     </row>
@@ -10286,10 +10273,10 @@
       <c r="B49" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="38" t="n">
+      <c r="C49" s="36" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="39" t="n">
+      <c r="D49" s="37" t="n">
         <v>303</v>
       </c>
     </row>
@@ -10300,10 +10287,10 @@
       <c r="B50" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C50" s="38" t="n">
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="39" t="n">
+      <c r="D50" s="37" t="n">
         <v>319</v>
       </c>
     </row>
@@ -11279,7 +11266,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -11287,32 +11274,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -294,13 +294,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 12:11:03:594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d7f63cdfc591c486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.0afe9f219d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:29:50:839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffd8542a4a077a01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f19c8b4868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -395,10 +395,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 12:23:03:175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9d40e5bed670dff</t>
+    <t xml:space="preserve">2024-03-29 08:30:54:624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42d9d78d9d4d86a5</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di comunicazione con FSE</t>
@@ -463,10 +463,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 12:45:20:210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24855ea6188db30c</t>
+    <t xml:space="preserve">2024-03-29 08:31:30:597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e022792ad344c23a</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
@@ -511,13 +511,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 14:10:54:405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9c94b1f6d0f0b884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.8233e297f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:32:45:676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a816ee935de4c33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.06b1f45575^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore nella compilazione della LDO per FSE</t>
@@ -541,13 +541,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 14:55:41:048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45bf2274ed22392a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.ec70a3194f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:33:37:485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b47c1376d592b7d9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.9ec6630c68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
@@ -590,13 +590,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 15:06:26:815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4472fba01389bd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.a1199d1e98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:34:11:164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3628a77bd72c26e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.0c4bc4cd69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
@@ -606,13 +606,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 15:26:02:263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1609a0309795da91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.1cb7c17c28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:34:29:847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19f820c10e47b17f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.7d942e4487^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -623,13 +623,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 15:06:55:065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71967dc4c825d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.945d05c99f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:35:04:473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32e6f6970fbd62c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.39f730cee4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -714,13 +714,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-21 11:54:59:429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55040beb652d69e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f2db7dc0ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-03-29 08:23:58:706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008a73a725a98b8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.e7ae9cf402^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1383,7 +1383,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2457,7 +2457,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3563,21 +3563,24 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="144.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="147.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="69.92"/>
   </cols>
   <sheetData>
@@ -3832,7 +3835,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>52</v>
@@ -3990,7 +3993,7 @@
         <v>67</v>
       </c>
       <c r="F14" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>68</v>
@@ -4042,7 +4045,7 @@
         <v>74</v>
       </c>
       <c r="F15" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>75</v>
@@ -4094,7 +4097,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -4220,7 +4223,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>89</v>
@@ -4312,7 +4315,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>98</v>
@@ -4480,7 +4483,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>112</v>
@@ -4534,7 +4537,7 @@
         <v>116</v>
       </c>
       <c r="F26" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>117</v>
@@ -4588,7 +4591,7 @@
         <v>121</v>
       </c>
       <c r="F27" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>122</v>
@@ -4946,7 +4949,7 @@
         <v>146</v>
       </c>
       <c r="F36" s="27" t="n">
-        <v>45372</v>
+        <v>45380</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>147</v>
@@ -9540,7 +9543,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T9"/>
+  <autoFilter ref="A9:T36"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -9585,7 +9588,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -11266,7 +11269,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="276">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -211,10 +211,30 @@
     <t xml:space="preserve">IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_application_id: simeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_application_vendor: sicenter</t>
+    <t xml:space="preserve">subject_application_id: sicenter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">subject_application_vendor: </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">simeds</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">subject_application_version: 1</t>
@@ -294,13 +314,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:29:50:839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffd8542a4a077a01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f19c8b4868^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 19:53:02:679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ed8c5cd053fde7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.46c38611cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -395,10 +415,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:30:54:624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42d9d78d9d4d86a5</t>
+    <t xml:space="preserve">2024-04-03 19:55:53:693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f134abb376f46691</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di comunicazione con FSE</t>
@@ -463,10 +483,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:31:30:597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e022792ad344c23a</t>
+    <t xml:space="preserve">2024-04-03 19:56:39:483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8cd5700def29ef8</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
@@ -511,13 +531,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:32:45:676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a816ee935de4c33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.06b1f45575^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 20:35:37:643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e7bb0821cc946e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.9d447ae8cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore nella compilazione della LDO per FSE</t>
@@ -541,13 +561,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:33:37:485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b47c1376d592b7d9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.9ec6630c68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 20:35:51:993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3395342f536412b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.cab5e1625f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT10_KO</t>
@@ -590,10 +610,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:34:11:164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3628a77bd72c26e7</t>
+    <t xml:space="preserve">2024-04-03 20:36:25:214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa7fcc27a6403a0c</t>
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.0c4bc4cd69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
@@ -606,13 +626,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:34:29:847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19f820c10e47b17f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.7d942e4487^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 20:36:34:010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42a4d4e86f6f8cbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.d1d5b394cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT15_KO</t>
@@ -623,13 +643,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:35:04:473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32e6f6970fbd62c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.39f730cee4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 20:36:41:851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0c8494a3ca9f1ef4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.c78d1c8c8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -714,13 +734,264 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-29 08:23:58:706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">008a73a725a98b8c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.e7ae9cf402^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-03 19:52:30:631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80ee2206b028aa27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f2452ccb70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Già testato per RAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-04 08:51:45:273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e4e13ad8160fdafb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.41797c185d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo non gestisce la sezione opzionale 'Storia_Clinica'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo non gestisce la sezione opzionale 'Quesito_Diagnostico'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-04 08:54:51:270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e73722a301cb5412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.ca94e5091c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore nella compilazione RSA per FSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’applicativo non permette di produrre niente se non ci sono prestazioni associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicativo inserisce il codice che identifica l'autenticazione del documento di default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-04 08:50:34:403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151fc4f7a0b6ee91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.8d4b7d9ff9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -781,9 +1052,6 @@
   </si>
   <si>
     <t xml:space="preserve">35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSA</t>
   </si>
   <si>
     <t xml:space="preserve">147,148,149,150,374</t>
@@ -912,7 +1180,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -973,6 +1241,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1260,11 +1535,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1383,7 +1658,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2457,7 +2732,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3563,14 +3838,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I27" activeCellId="0" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -3835,7 +4110,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>52</v>
@@ -3993,7 +4268,7 @@
         <v>67</v>
       </c>
       <c r="F14" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>68</v>
@@ -4045,7 +4320,7 @@
         <v>74</v>
       </c>
       <c r="F15" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>75</v>
@@ -4097,7 +4372,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -4223,7 +4498,7 @@
         <v>88</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>89</v>
@@ -4315,7 +4590,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>98</v>
@@ -4483,7 +4758,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>112</v>
@@ -4537,7 +4812,7 @@
         <v>116</v>
       </c>
       <c r="F26" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>117</v>
@@ -4591,7 +4866,7 @@
         <v>121</v>
       </c>
       <c r="F27" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>122</v>
@@ -4949,7 +5224,7 @@
         <v>146</v>
       </c>
       <c r="F36" s="27" t="n">
-        <v>45380</v>
+        <v>45385</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>147</v>
@@ -4977,463 +5252,1060 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="14"/>
+      <c r="A37" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="14"/>
+      <c r="A38" s="24" t="n">
+        <v>40</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="14"/>
+      <c r="A39" s="24" t="n">
+        <v>48</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="31"/>
+      <c r="T39" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="14"/>
+      <c r="A40" s="24" t="n">
+        <v>147</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="27" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="14"/>
+      <c r="A41" s="24" t="n">
+        <v>148</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="14"/>
+      <c r="A42" s="24" t="n">
+        <v>149</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="14"/>
+      <c r="A43" s="24" t="n">
+        <v>150</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="14"/>
+      <c r="A44" s="24" t="n">
+        <v>151</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="14"/>
+      <c r="A45" s="24" t="n">
+        <v>152</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="14"/>
+      <c r="A46" s="24" t="n">
+        <v>153</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="14"/>
+      <c r="A47" s="24" t="n">
+        <v>154</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="14"/>
+      <c r="A48" s="24" t="n">
+        <v>155</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="14"/>
+      <c r="A49" s="24" t="n">
+        <v>156</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="14"/>
+      <c r="A50" s="24" t="n">
+        <v>157</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="14"/>
+      <c r="A51" s="24" t="n">
+        <v>158</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="14"/>
+      <c r="A52" s="24" t="n">
+        <v>159</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="14"/>
+      <c r="A53" s="24" t="n">
+        <v>160</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="27" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="14"/>
+      <c r="A54" s="24" t="n">
+        <v>161</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="14"/>
+      <c r="A55" s="24" t="n">
+        <v>162</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="14"/>
+      <c r="A56" s="24" t="n">
+        <v>163</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="14"/>
+      <c r="A57" s="24" t="n">
+        <v>164</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="14"/>
+      <c r="A58" s="24" t="n">
+        <v>165</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="14"/>
+      <c r="A59" s="24" t="n">
+        <v>166</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="14"/>
+      <c r="A60" s="24" t="n">
+        <v>167</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="14"/>
+      <c r="A61" s="24" t="n">
+        <v>168</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="14"/>
+      <c r="A62" s="24" t="n">
+        <v>169</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="14"/>
+      <c r="A63" s="24" t="n">
+        <v>374</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" s="27" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J63" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F64" s="11"/>
@@ -9543,7 +10415,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T36"/>
+  <autoFilter ref="A9:T9"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -9553,12 +10425,24 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="5">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J36 L10:M36 O10:O36" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q36" type="list">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J39:J43 L39:M63 O39:O63 J46 J48 J52:J56 J61:J63" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J44:J45 J47 J49:J51 J57:J60" type="list">
+      <formula1>Sheet1!$B$2:$B$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q39:Q63" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9588,7 +10472,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -9605,38 +10489,38 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9644,125 +10528,125 @@
         <v>49</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9770,111 +10654,111 @@
         <v>49</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9882,111 +10766,111 @@
         <v>49</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9994,91 +10878,91 @@
         <v>49</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C35" s="36" t="n">
         <v>195</v>
@@ -10089,10 +10973,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C36" s="36" t="n">
         <v>211</v>
@@ -10106,7 +10990,7 @@
         <v>49</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C37" s="36" t="n">
         <v>227</v>
@@ -10117,10 +11001,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C38" s="36" t="n">
         <v>243</v>
@@ -10131,10 +11015,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C39" s="36" t="n">
         <v>259</v>
@@ -10145,10 +11029,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C40" s="36" t="n">
         <v>275</v>
@@ -10159,10 +11043,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C41" s="36" t="n">
         <v>291</v>
@@ -10173,10 +11057,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="C42" s="36" t="n">
         <v>307</v>
@@ -10187,10 +11071,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C43" s="36" t="n">
         <v>196</v>
@@ -10201,10 +11085,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C44" s="36" t="n">
         <v>212</v>
@@ -10218,7 +11102,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C45" s="36" t="n">
         <v>228</v>
@@ -10229,10 +11113,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C46" s="36" t="n">
         <v>244</v>
@@ -10243,10 +11127,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C47" s="36" t="n">
         <v>260</v>
@@ -10257,10 +11141,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C48" s="36" t="n">
         <v>276</v>
@@ -10271,10 +11155,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C49" s="36" t="n">
         <v>292</v>
@@ -10285,10 +11169,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C50" s="36" t="n">
         <v>308</v>
@@ -11269,7 +12153,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -11286,7 +12170,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>55</v>
@@ -11294,7 +12178,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>59</v>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="276">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -214,27 +214,7 @@
     <t xml:space="preserve">subject_application_id: sicenter</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">subject_application_vendor: </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">simeds</t>
-    </r>
+    <t xml:space="preserve">subject_application_vendor: simeds</t>
   </si>
   <si>
     <t xml:space="preserve">subject_application_version: 1</t>
@@ -1180,7 +1160,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1241,13 +1221,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1535,11 +1508,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1658,7 +1631,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2732,7 +2705,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3838,14 +3811,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="P39" activeCellId="0" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -5343,21 +5316,31 @@
       <c r="E39" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="27" t="n">
+        <v>45386</v>
+      </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
+      <c r="M39" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q39" s="29"/>
       <c r="R39" s="30" t="s">
         <v>55</v>
@@ -10415,7 +10398,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T9"/>
+  <autoFilter ref="A9:T36"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -10426,15 +10409,15 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J36 L10:M36 O10:O36" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J36 L10:M36 O10:O36 J39 L39:M39 O39" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q36" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q36 Q39" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J39:J43 L39:M63 O39:O63 J46 J48 J52:J56 J61:J63" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J40:J43 L40:M63 O40:O63 J46 J48 J52:J56 J61:J63" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10442,7 +10425,7 @@
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q39:Q63" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q40:Q63" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10472,7 +10455,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -12153,7 +12136,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$T$63</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">TestCases!$A$9:$T$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">TestCases!$A$9:$T$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="292">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -410,6 +411,18 @@
     <t xml:space="preserve">KO</t>
   </si>
   <si>
+    <t xml:space="preserve">RSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10 11:02:49:470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ac51446380bed8c</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
   </si>
   <si>
@@ -469,6 +482,15 @@
     <t xml:space="preserve">b8cd5700def29ef8</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10 11:08:10:190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d577a4b05fce8c81</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
   <si>
@@ -480,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tentativo di re-invio del messaggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT5_KO</t>
@@ -695,6 +720,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">L'applicativo non gestisce la sezione opzionale 'QUESITO DIAGNOSTICO'</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
@@ -704,38 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">L'applicativo non gestisce la sezione opzionale 'DOCUMENTATIONOF'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-03 19:52:30:631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80ee2206b028aa27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f2452ccb70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Già testato per RAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -796,6 +792,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">Errore nella compilazione RSA per FSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
@@ -812,6 +811,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-10 11:13:38:072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553c71d9824ba8c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.d7caaa97ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
   </si>
   <si>
@@ -828,6 +836,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-10 11:13:47:967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ffde6316f40f573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.682fa1bfc0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
   </si>
   <si>
@@ -859,6 +876,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-10 11:13:59:491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b5c8dc3b1e1e8b04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.0c8e0fab85^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -873,9 +899,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.ca94e5091c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore nella compilazione RSA per FSE</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -886,6 +909,15 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-04-10 11:14:11:097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ccd0258887e1c0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.e87cd5b5059be5a8cf6944719e1870f8139f180b1fcdf9ed6e89a4e2a3b8c5a2.2c8b6b7743^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
   </si>
   <si>
@@ -954,6 +986,23 @@
   </si>
   <si>
     <t xml:space="preserve">L'applicativo inserisce il codice che identifica l'autenticazione del documento di default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-03 19:52:30:631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80ee2206b028aa27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90999.53f5b9f5d9a405fbb9b42c0732532d20fe040084e6a8b7cac99001cb8fe22cf3.f2452ccb70^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -1160,7 +1209,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1230,6 +1279,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="6.4"/>
@@ -1371,7 +1426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1516,6 +1571,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1631,7 +1690,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2705,7 +2764,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3811,14 +3870,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="P39" activeCellId="0" sqref="P39"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -4278,22 +4337,22 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F15" s="27" t="n">
-        <v>45385</v>
+        <v>45392</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>75</v>
@@ -4312,7 +4371,7 @@
       <c r="M15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="29" t="s">
+      <c r="N15" s="35" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="29" t="s">
@@ -4330,7 +4389,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>48</v>
@@ -4341,14 +4400,18 @@
       <c r="D16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="34" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>45385</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="I16" s="28"/>
       <c r="J16" s="29" t="s">
         <v>55</v>
@@ -4361,18 +4424,16 @@
         <v>59</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O16" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="29"/>
-      <c r="R16" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="R16" s="30"/>
       <c r="S16" s="31"/>
       <c r="T16" s="32" t="s">
         <v>72</v>
@@ -4380,35 +4441,49 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="27" t="n">
+        <v>45392</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="H17" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="I17" s="28"/>
       <c r="J17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="M17" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
@@ -4418,7 +4493,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>48</v>
@@ -4432,23 +4507,35 @@
       <c r="E18" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27" t="n">
+        <v>45385</v>
+      </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="M18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="O18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>87</v>
+      </c>
       <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
+      <c r="R18" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
         <v>72</v>
@@ -4456,32 +4543,26 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>91</v>
-      </c>
+        <v>45386</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="29" t="s">
         <v>55</v>
       </c>
@@ -4493,16 +4574,18 @@
         <v>59</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O19" s="29" t="s">
         <v>55</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
+      <c r="R19" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
         <v>72</v>
@@ -4510,7 +4593,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>48</v>
@@ -4519,10 +4602,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
@@ -4532,13 +4615,13 @@
         <v>59</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-      <c r="P20" s="35"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
@@ -4548,7 +4631,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>48</v>
@@ -4557,42 +4640,26 @@
         <v>49</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>100</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="K21" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
@@ -4602,7 +4669,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>48</v>
@@ -4611,26 +4678,42 @@
         <v>49</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="F22" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="J22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="M22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
@@ -4640,7 +4723,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>48</v>
@@ -4649,10 +4732,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
@@ -4662,13 +4745,13 @@
         <v>59</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="P23" s="36"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
@@ -4678,7 +4761,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>48</v>
@@ -4687,26 +4770,42 @@
         <v>49</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="I24" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
       <c r="J24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="M24" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
@@ -4716,7 +4815,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>48</v>
@@ -4725,42 +4824,26 @@
         <v>49</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
@@ -4770,7 +4853,7 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>48</v>
@@ -4779,42 +4862,26 @@
         <v>49</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P26" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="K26" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
@@ -4824,7 +4891,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>48</v>
@@ -4833,42 +4900,26 @@
         <v>49</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="29" t="s">
-        <v>71</v>
-      </c>
+      <c r="K27" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
@@ -4878,7 +4929,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>48</v>
@@ -4887,26 +4938,42 @@
         <v>49</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="F28" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="J28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="M28" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
@@ -4916,7 +4983,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>48</v>
@@ -4925,26 +4992,42 @@
         <v>49</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+        <v>124</v>
+      </c>
+      <c r="F29" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>127</v>
+      </c>
       <c r="J29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
@@ -4954,7 +5037,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>48</v>
@@ -4963,26 +5046,42 @@
         <v>49</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="I30" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
       <c r="J30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="M30" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q30" s="29"/>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
@@ -4992,7 +5091,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>48</v>
@@ -5001,10 +5100,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
@@ -5014,7 +5113,7 @@
         <v>59</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -5030,7 +5129,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>48</v>
@@ -5052,7 +5151,7 @@
         <v>59</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
@@ -5068,7 +5167,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>48</v>
@@ -5077,10 +5176,10 @@
         <v>49</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
@@ -5090,7 +5189,7 @@
         <v>59</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
@@ -5106,7 +5205,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>48</v>
@@ -5115,10 +5214,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="28"/>
@@ -5128,7 +5227,7 @@
         <v>59</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
@@ -5144,7 +5243,7 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>48</v>
@@ -5153,10 +5252,10 @@
         <v>49</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="28"/>
@@ -5166,7 +5265,7 @@
         <v>59</v>
       </c>
       <c r="K35" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -5182,7 +5281,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="n">
-        <v>370</v>
+        <v>91</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>48</v>
@@ -5191,27 +5290,21 @@
         <v>49</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="27" t="n">
-        <v>45385</v>
-      </c>
-      <c r="G36" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>149</v>
-      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
       <c r="J36" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
@@ -5221,24 +5314,24 @@
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>67</v>
+        <v>148</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="28"/>
@@ -5247,8 +5340,8 @@
       <c r="J37" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="29" t="s">
-        <v>152</v>
+      <c r="K37" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -5264,19 +5357,19 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>74</v>
+        <v>151</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="28"/>
@@ -5285,8 +5378,8 @@
       <c r="J38" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="29" t="s">
-        <v>152</v>
+      <c r="K38" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -5302,86 +5395,74 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="24" t="n">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>154</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F39" s="27" t="n">
         <v>45386</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="G39" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="J39" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K39" s="29"/>
-      <c r="L39" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="P39" s="29" t="s">
-        <v>80</v>
-      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
-      <c r="R39" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="R39" s="30"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="27" t="n">
-        <v>45386</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
@@ -5396,19 +5477,19 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="28"/>
@@ -5418,7 +5499,7 @@
         <v>59</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
@@ -5434,19 +5515,19 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="28"/>
@@ -5456,7 +5537,7 @@
         <v>59</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
@@ -5472,19 +5553,19 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
@@ -5493,36 +5574,46 @@
       <c r="J43" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
+      <c r="K43" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q43" s="29"/>
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="28"/>
@@ -5532,7 +5623,7 @@
         <v>59</v>
       </c>
       <c r="K44" s="33" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
@@ -5548,35 +5639,51 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+        <v>173</v>
+      </c>
+      <c r="F45" s="27" t="n">
+        <v>45392</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>176</v>
+      </c>
       <c r="J45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
+      <c r="M45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q45" s="29"/>
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
@@ -5586,19 +5693,19 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="28"/>
@@ -5607,8 +5714,8 @@
       <c r="J46" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="29" t="s">
-        <v>152</v>
+      <c r="K46" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -5624,30 +5731,36 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+        <v>180</v>
+      </c>
+      <c r="F47" s="27" t="n">
+        <v>45392</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>183</v>
+      </c>
       <c r="J47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
@@ -5662,19 +5775,19 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="24" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="28"/>
@@ -5683,8 +5796,8 @@
       <c r="J48" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="29" t="s">
-        <v>152</v>
+      <c r="K48" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -5700,19 +5813,19 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
@@ -5722,7 +5835,7 @@
         <v>59</v>
       </c>
       <c r="K49" s="33" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -5738,19 +5851,19 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
@@ -5760,7 +5873,7 @@
         <v>59</v>
       </c>
       <c r="K50" s="33" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -5776,35 +5889,51 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+        <v>191</v>
+      </c>
+      <c r="F51" s="27" t="n">
+        <v>45392</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="J51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K51" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
+      <c r="M51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q51" s="29"/>
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
@@ -5814,35 +5943,51 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+        <v>196</v>
+      </c>
+      <c r="F52" s="27" t="n">
+        <v>45386</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="J52" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K52" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
+      <c r="M52" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O52" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q52" s="29"/>
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
@@ -5852,31 +5997,31 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="24" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F53" s="27" t="n">
-        <v>45386</v>
+        <v>45392</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>55</v>
@@ -5889,7 +6034,7 @@
         <v>55</v>
       </c>
       <c r="N53" s="29" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="O53" s="29" t="s">
         <v>55</v>
@@ -5906,19 +6051,19 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="28"/>
@@ -5928,7 +6073,7 @@
         <v>59</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
@@ -5944,19 +6089,19 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
@@ -5966,7 +6111,7 @@
         <v>59</v>
       </c>
       <c r="K55" s="29" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
@@ -5982,19 +6127,19 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="28"/>
@@ -6003,8 +6148,8 @@
       <c r="J56" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K56" s="29" t="s">
-        <v>198</v>
+      <c r="K56" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="L56" s="29"/>
       <c r="M56" s="29"/>
@@ -6020,19 +6165,19 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="28"/>
@@ -6042,7 +6187,7 @@
         <v>59</v>
       </c>
       <c r="K57" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L57" s="29"/>
       <c r="M57" s="29"/>
@@ -6058,19 +6203,19 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="28"/>
@@ -6080,7 +6225,7 @@
         <v>59</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L58" s="29"/>
       <c r="M58" s="29"/>
@@ -6096,19 +6241,19 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="28"/>
@@ -6118,7 +6263,7 @@
         <v>59</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L59" s="29"/>
       <c r="M59" s="29"/>
@@ -6134,19 +6279,19 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F60" s="27"/>
       <c r="G60" s="28"/>
@@ -6155,8 +6300,8 @@
       <c r="J60" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="33" t="s">
-        <v>133</v>
+      <c r="K60" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="L60" s="29"/>
       <c r="M60" s="29"/>
@@ -6172,19 +6317,19 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B61" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="28"/>
@@ -6193,8 +6338,8 @@
       <c r="J61" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="29" t="s">
-        <v>165</v>
+      <c r="K61" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="L61" s="29"/>
       <c r="M61" s="29"/>
@@ -6210,30 +6355,36 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="n">
-        <v>169</v>
+        <v>370</v>
       </c>
       <c r="B62" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+        <v>224</v>
+      </c>
+      <c r="F62" s="27" t="n">
+        <v>45385</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>227</v>
+      </c>
       <c r="J62" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K62" s="33" t="s">
-        <v>211</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
@@ -6243,7 +6394,7 @@
       <c r="R62" s="30"/>
       <c r="S62" s="31"/>
       <c r="T62" s="32" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6254,25 +6405,25 @@
         <v>48</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F63" s="27" t="n">
         <v>45386</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>55</v>
@@ -10398,7 +10549,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:T36"/>
+  <autoFilter ref="A9:T63"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -10409,23 +10560,23 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J36 L10:M36 O10:O36 J39 L39:M39 O39" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J14 L10:M14 O10:O14 J16 L16:M38 O16:O38 J18:J38 J62 L62:M62 O62" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q36 Q39" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q14 Q16 Q18:Q38 Q62" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J40:J43 L40:M63 O40:O63 J46 J48 J52:J56 J61:J63" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J39:J42 L39:M61 O39:O61 J45 J47 J51:J55 J60:J61 J63 L63:M63 O63" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J44:J45 J47 J49:J51 J57:J60" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J43:J44 J46 J48:J50 J56:J59" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q40:Q63" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q39:Q61 Q63" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10455,7 +10606,7 @@
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -10472,38 +10623,38 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>222</v>
+        <v>236</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>225</v>
+        <v>236</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10511,125 +10662,125 @@
         <v>49</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>227</v>
+        <v>236</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>230</v>
+        <v>236</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="37" t="s">
         <v>236</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C11" s="37" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>246</v>
+      <c r="D11" s="37" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C12" s="37" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>247</v>
+      <c r="D12" s="37" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10637,111 +10788,111 @@
         <v>49</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C13" s="37" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>248</v>
+      <c r="D13" s="38" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C14" s="37" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>249</v>
+      <c r="D14" s="37" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C15" s="37" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>250</v>
+      <c r="D15" s="38" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C16" s="37" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>251</v>
+      <c r="D16" s="38" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C17" s="37" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>252</v>
+      <c r="D17" s="38" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="36" t="n">
+        <v>261</v>
+      </c>
+      <c r="C18" s="37" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>253</v>
+      <c r="D18" s="38" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C19" s="37" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>255</v>
+      <c r="D19" s="37" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C20" s="37" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>256</v>
+      <c r="D20" s="37" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10749,111 +10900,111 @@
         <v>49</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C21" s="37" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>257</v>
+      <c r="D21" s="38" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C22" s="37" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>258</v>
+      <c r="D22" s="37" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C23" s="37" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="37" t="s">
-        <v>259</v>
+      <c r="D23" s="38" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C24" s="37" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>260</v>
+      <c r="D24" s="38" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C25" s="37" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="37" t="s">
-        <v>261</v>
+      <c r="D25" s="38" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="36" t="n">
+        <v>270</v>
+      </c>
+      <c r="C26" s="37" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>262</v>
+      <c r="D26" s="38" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C27" s="37" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>264</v>
+      <c r="D27" s="37" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C28" s="37" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>265</v>
+      <c r="D28" s="37" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10861,110 +11012,110 @@
         <v>49</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C29" s="37" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>266</v>
+      <c r="D29" s="39" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C30" s="37" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>267</v>
+      <c r="D30" s="37" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C31" s="37" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>268</v>
+      <c r="D31" s="38" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C32" s="37" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>269</v>
+      <c r="D32" s="38" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C33" s="37" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>270</v>
+      <c r="D33" s="38" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="36" t="n">
+        <v>279</v>
+      </c>
+      <c r="C34" s="37" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>271</v>
+      <c r="D34" s="38" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C35" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C35" s="37" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="37" t="n">
         <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C36" s="37" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="36" t="n">
+      <c r="D36" s="37" t="n">
         <v>220</v>
       </c>
     </row>
@@ -10973,110 +11124,110 @@
         <v>49</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C37" s="37" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="37" t="n">
+      <c r="D37" s="38" t="n">
         <v>236</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C38" s="37" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="36" t="n">
+      <c r="D38" s="37" t="n">
         <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C39" s="37" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="37" t="n">
+      <c r="D39" s="38" t="n">
         <v>268</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C40" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C40" s="37" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="37" t="n">
+      <c r="D40" s="38" t="n">
         <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C41" s="37" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="37" t="n">
+      <c r="D41" s="38" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C42" s="36" t="n">
+        <v>288</v>
+      </c>
+      <c r="C42" s="37" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="37" t="n">
+      <c r="D42" s="38" t="n">
         <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C43" s="37" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="37" t="n">
         <v>207</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C44" s="37" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="37" t="n">
         <v>223</v>
       </c>
     </row>
@@ -11085,82 +11236,82 @@
         <v>49</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C45" s="37" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="38" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C46" s="37" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="36" t="n">
+      <c r="D46" s="37" t="n">
         <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C47" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C47" s="37" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="37" t="n">
+      <c r="D47" s="38" t="n">
         <v>271</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C48" s="37" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="38" t="n">
         <v>287</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C49" s="37" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="38" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="36" t="n">
+        <v>289</v>
+      </c>
+      <c r="C50" s="37" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="38" t="n">
         <v>319</v>
       </c>
     </row>
@@ -12136,7 +12287,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -12153,7 +12304,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>55</v>
@@ -12161,7 +12312,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>59</v>

--- a/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111SIMEDSSRLCXX/SIMEDS/SICENTER/1/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="292">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1209,7 +1209,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1279,12 +1279,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="6.4"/>
@@ -1426,7 +1420,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1571,10 +1565,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1687,10 +1677,10 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L47:P47 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.86"/>
@@ -2761,10 +2751,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L47:P47 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -3870,14 +3860,14 @@
   <dimension ref="A1:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K34" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="L47" activeCellId="0" sqref="L47:P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -4371,7 +4361,7 @@
       <c r="M15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="29" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="29" t="s">
@@ -4751,7 +4741,7 @@
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
-      <c r="P23" s="36"/>
+      <c r="P23" s="35"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
@@ -5761,11 +5751,21 @@
         <v>55</v>
       </c>
       <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
+      <c r="L47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="O47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
@@ -10603,10 +10603,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="L47:P47 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
@@ -10636,10 +10636,10 @@
       <c r="B2" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10650,10 +10650,10 @@
       <c r="B3" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>241</v>
       </c>
     </row>
@@ -10664,10 +10664,10 @@
       <c r="B4" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>243</v>
       </c>
     </row>
@@ -10678,10 +10678,10 @@
       <c r="B5" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>246</v>
       </c>
     </row>
@@ -10692,10 +10692,10 @@
       <c r="B6" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10706,10 +10706,10 @@
       <c r="B7" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10720,10 +10720,10 @@
       <c r="B8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10734,10 +10734,10 @@
       <c r="B9" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10748,10 +10748,10 @@
       <c r="B10" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10762,10 +10762,10 @@
       <c r="B11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10776,10 +10776,10 @@
       <c r="B12" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C12" s="37" t="n">
+      <c r="C12" s="36" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10790,10 +10790,10 @@
       <c r="B13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="37" t="n">
+      <c r="C13" s="36" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>264</v>
       </c>
     </row>
@@ -10804,10 +10804,10 @@
       <c r="B14" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="37" t="n">
+      <c r="C14" s="36" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10818,10 +10818,10 @@
       <c r="B15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="37" t="n">
+      <c r="C15" s="36" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10832,10 +10832,10 @@
       <c r="B16" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C16" s="37" t="n">
+      <c r="C16" s="36" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>267</v>
       </c>
     </row>
@@ -10846,10 +10846,10 @@
       <c r="B17" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C17" s="37" t="n">
+      <c r="C17" s="36" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>268</v>
       </c>
     </row>
@@ -10860,10 +10860,10 @@
       <c r="B18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C18" s="37" t="n">
+      <c r="C18" s="36" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>269</v>
       </c>
     </row>
@@ -10874,10 +10874,10 @@
       <c r="B19" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="37" t="n">
+      <c r="C19" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>271</v>
       </c>
     </row>
@@ -10888,10 +10888,10 @@
       <c r="B20" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C20" s="37" t="n">
+      <c r="C20" s="36" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="36" t="s">
         <v>272</v>
       </c>
     </row>
@@ -10902,10 +10902,10 @@
       <c r="B21" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="37" t="n">
+      <c r="C21" s="36" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>273</v>
       </c>
     </row>
@@ -10916,10 +10916,10 @@
       <c r="B22" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="37" t="n">
+      <c r="C22" s="36" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>274</v>
       </c>
     </row>
@@ -10930,10 +10930,10 @@
       <c r="B23" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="37" t="n">
+      <c r="C23" s="36" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="37" t="s">
         <v>275</v>
       </c>
     </row>
@@ -10944,10 +10944,10 @@
       <c r="B24" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="37" t="n">
+      <c r="C24" s="36" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="37" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10958,10 +10958,10 @@
       <c r="B25" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="37" t="n">
+      <c r="C25" s="36" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10972,10 +10972,10 @@
       <c r="B26" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="37" t="n">
+      <c r="C26" s="36" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="37" t="s">
         <v>278</v>
       </c>
     </row>
@@ -10986,10 +10986,10 @@
       <c r="B27" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C27" s="37" t="n">
+      <c r="C27" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>280</v>
       </c>
     </row>
@@ -11000,10 +11000,10 @@
       <c r="B28" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="37" t="n">
+      <c r="C28" s="36" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>281</v>
       </c>
     </row>
@@ -11014,10 +11014,10 @@
       <c r="B29" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C29" s="37" t="n">
+      <c r="C29" s="36" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="38" t="s">
         <v>282</v>
       </c>
     </row>
@@ -11028,10 +11028,10 @@
       <c r="B30" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C30" s="37" t="n">
+      <c r="C30" s="36" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>283</v>
       </c>
     </row>
@@ -11042,10 +11042,10 @@
       <c r="B31" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C31" s="37" t="n">
+      <c r="C31" s="36" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>284</v>
       </c>
     </row>
@@ -11056,10 +11056,10 @@
       <c r="B32" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C32" s="37" t="n">
+      <c r="C32" s="36" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>285</v>
       </c>
     </row>
@@ -11070,10 +11070,10 @@
       <c r="B33" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C33" s="37" t="n">
+      <c r="C33" s="36" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>286</v>
       </c>
     </row>
@@ -11084,10 +11084,10 @@
       <c r="B34" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="37" t="n">
+      <c r="C34" s="36" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>287</v>
       </c>
     </row>
@@ -11098,10 +11098,10 @@
       <c r="B35" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C35" s="37" t="n">
+      <c r="C35" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="37" t="n">
+      <c r="D35" s="36" t="n">
         <v>204</v>
       </c>
     </row>
@@ -11112,10 +11112,10 @@
       <c r="B36" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="37" t="n">
+      <c r="C36" s="36" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="37" t="n">
+      <c r="D36" s="36" t="n">
         <v>220</v>
       </c>
     </row>
@@ -11126,10 +11126,10 @@
       <c r="B37" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="37" t="n">
+      <c r="C37" s="36" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="38" t="n">
+      <c r="D37" s="37" t="n">
         <v>236</v>
       </c>
     </row>
@@ -11140,10 +11140,10 @@
       <c r="B38" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="37" t="n">
+      <c r="C38" s="36" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="37" t="n">
+      <c r="D38" s="36" t="n">
         <v>252</v>
       </c>
     </row>
@@ -11154,10 +11154,10 @@
       <c r="B39" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="37" t="n">
+      <c r="C39" s="36" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="38" t="n">
+      <c r="D39" s="37" t="n">
         <v>268</v>
       </c>
     </row>
@@ -11168,10 +11168,10 @@
       <c r="B40" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="37" t="n">
+      <c r="C40" s="36" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="38" t="n">
+      <c r="D40" s="37" t="n">
         <v>284</v>
       </c>
     </row>
@@ -11182,10 +11182,10 @@
       <c r="B41" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="37" t="n">
+      <c r="C41" s="36" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="38" t="n">
+      <c r="D41" s="37" t="n">
         <v>300</v>
       </c>
     </row>
@@ -11196,10 +11196,10 @@
       <c r="B42" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="37" t="n">
+      <c r="C42" s="36" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="38" t="n">
+      <c r="D42" s="37" t="n">
         <v>316</v>
       </c>
     </row>
@@ -11210,10 +11210,10 @@
       <c r="B43" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C43" s="37" t="n">
+      <c r="C43" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="37" t="n">
+      <c r="D43" s="36" t="n">
         <v>207</v>
       </c>
     </row>
@@ -11224,10 +11224,10 @@
       <c r="B44" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C44" s="37" t="n">
+      <c r="C44" s="36" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="37" t="n">
+      <c r="D44" s="36" t="n">
         <v>223</v>
       </c>
     </row>
@@ -11238,10 +11238,10 @@
       <c r="B45" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C45" s="37" t="n">
+      <c r="C45" s="36" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="38" t="n">
+      <c r="D45" s="37" t="n">
         <v>239</v>
       </c>
     </row>
@@ -11252,10 +11252,10 @@
       <c r="B46" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C46" s="37" t="n">
+      <c r="C46" s="36" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="37" t="n">
+      <c r="D46" s="36" t="n">
         <v>255</v>
       </c>
     </row>
@@ -11266,10 +11266,10 @@
       <c r="B47" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="37" t="n">
+      <c r="C47" s="36" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="38" t="n">
+      <c r="D47" s="37" t="n">
         <v>271</v>
       </c>
     </row>
@@ -11280,10 +11280,10 @@
       <c r="B48" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="37" t="n">
+      <c r="C48" s="36" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="38" t="n">
+      <c r="D48" s="37" t="n">
         <v>287</v>
       </c>
     </row>
@@ -11294,10 +11294,10 @@
       <c r="B49" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="37" t="n">
+      <c r="C49" s="36" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="38" t="n">
+      <c r="D49" s="37" t="n">
         <v>303</v>
       </c>
     </row>
@@ -11308,10 +11308,10 @@
       <c r="B50" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C50" s="37" t="n">
+      <c r="C50" s="36" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="38" t="n">
+      <c r="D50" s="37" t="n">
         <v>319</v>
       </c>
     </row>
@@ -12284,10 +12284,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L47:P47 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
